--- a/林旭诚/数据库接口文档.xlsx
+++ b/林旭诚/数据库接口文档.xlsx
@@ -218,10 +218,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">             Score score</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用于交卷，成功交卷返回成绩对象，否则返回NULL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -251,6 +247,10 @@
   </si>
   <si>
     <t xml:space="preserve"> getEnd_sent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Score score</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -373,24 +373,22 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -404,10 +402,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -715,7 +710,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:D19"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -728,351 +723,351 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="8"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="5" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="8"/>
-      <c r="B6" s="11" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="8"/>
-      <c r="B7" s="11"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="8"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="6" t="s">
+      <c r="A8" s="6"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="6" t="s">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="12"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="6" t="s">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="12"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
       <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="4" t="s">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="4" t="s">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="4" t="s">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="4" t="s">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8" t="s">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
       <c r="C21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
       <c r="C22" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="4" t="s">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="4" t="s">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="4" t="s">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="4" t="s">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="8"/>
-      <c r="B27" s="2" t="s">
+      <c r="A27" s="6"/>
+      <c r="B27" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="10"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="8"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="6" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="4" t="s">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
     </row>
     <row r="31" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="10"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="8"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" s="2" t="s">
+      <c r="A32" s="6" t="s">
         <v>52</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E32" s="3" t="s">
@@ -1080,42 +1075,42 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8" t="s">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="9"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" s="6"/>
+      <c r="B35" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="3" t="s">
+      <c r="C35" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="11"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="8"/>
-      <c r="B35" s="7" t="s">
+      <c r="D35" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D35" s="3" t="s">
+      <c r="E35" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
@@ -1126,6 +1121,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="A28:E28"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B20:B26"/>
     <mergeCell ref="D20:D26"/>
@@ -1142,20 +1151,6 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/林旭诚/数据库接口文档.xlsx
+++ b/林旭诚/数据库接口文档.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="67">
   <si>
     <t>接口类名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -252,6 +252,32 @@
   <si>
     <t>Score score</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getScore</t>
+  </si>
+  <si>
+    <t>int User_id</t>
+  </si>
+  <si>
+    <t>String score</t>
+  </si>
+  <si>
+    <t>用于查询用户按主题分类的成绩</t>
+  </si>
+  <si>
+    <t>int Theme_id</t>
+  </si>
+  <si>
+    <t>CJGLDao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成绩模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true:成功 false:失败</t>
   </si>
 </sst>
 </file>
@@ -375,9 +401,6 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -387,7 +410,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyAlignment="1">
@@ -402,7 +428,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -707,10 +733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D6" sqref="D6:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -723,28 +749,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -764,11 +790,11 @@
       <c r="B4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>28</v>
@@ -777,7 +803,7 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
       <c r="B5" s="9"/>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D5" s="9"/>
@@ -788,7 +814,7 @@
       <c r="B6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D6" s="9" t="s">
@@ -801,7 +827,7 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
       <c r="B7" s="9"/>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="9"/>
@@ -810,7 +836,7 @@
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
       <c r="B8" s="9"/>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D8" s="9"/>
@@ -821,7 +847,7 @@
       <c r="B9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -834,7 +860,7 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D10" s="6"/>
@@ -843,7 +869,7 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D11" s="6"/>
@@ -865,7 +891,7 @@
       <c r="B13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -878,7 +904,7 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="6"/>
@@ -887,7 +913,7 @@
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="6"/>
@@ -896,7 +922,7 @@
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="6"/>
@@ -905,7 +931,7 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="6"/>
@@ -914,7 +940,7 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="6"/>
@@ -923,7 +949,7 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="6"/>
@@ -934,7 +960,7 @@
       <c r="B20" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="6" t="s">
@@ -947,7 +973,7 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="6"/>
@@ -956,7 +982,7 @@
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="6"/>
@@ -965,7 +991,7 @@
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D23" s="6"/>
@@ -974,7 +1000,7 @@
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D24" s="6"/>
@@ -983,7 +1009,7 @@
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="6"/>
@@ -992,7 +1018,7 @@
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D26" s="6"/>
@@ -1000,16 +1026,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="6"/>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1029,7 +1055,7 @@
       <c r="B29" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D29" s="6" t="s">
@@ -1042,7 +1068,7 @@
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D30" s="6"/>
@@ -1061,16 +1087,16 @@
       <c r="A32" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="2" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1079,7 +1105,7 @@
       <c r="B33" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D33" s="6" t="s">
@@ -1092,7 +1118,7 @@
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D34" s="6"/>
@@ -1100,41 +1126,61 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="6"/>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="1"/>
+    <row r="36" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A36" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="8"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" s="1"/>
+      <c r="A37" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="A28:E28"/>
+  <mergeCells count="35">
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="E37:E38"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B20:B26"/>
     <mergeCell ref="D20:D26"/>
@@ -1151,6 +1197,20 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/林旭诚/数据库接口文档.xlsx
+++ b/林旭诚/数据库接口文档.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -78,206 +78,206 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>getDetailedInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于查看数据库个人详细信息，成功返回用户详细信息对象。否则返回false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getGrowthCurve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string User_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于查看个人成长曲线图片，成功返回url，否则返回null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答题模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginDao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true:成功 false:失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于登录验证，验证通过返回true，否则返回false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>registerUser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string userEmail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于验证普通用户的注册，注册成功返回success，否则返回fail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string userPassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forgetPassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于忘记密码，更改密码成功就返回true,否则返回fasle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册登录模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错题本模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int Theme_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;Title&gt; titleList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CTGLDao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int Theme_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int User_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于根据考试主题id和用户id显示相应的错题，成功返回错题列表，否则返回NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getFlaseTitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于根据考试主题id显示相应的题目，成功返回题目列表，否则返回NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean is_real</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于根据用户点击下一题，系统将根据题目id提交答案到后台匹配，成功返回boolean对象，正确返回ture,错误返回false.否则返回NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于交卷，成功交卷返回成绩对象，否则返回NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> getThemeTitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DTGLDao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int title_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string Title_real_as</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> getNextTitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> getEnd_sent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Score score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getScore</t>
+  </si>
+  <si>
+    <t>int User_id</t>
+  </si>
+  <si>
+    <t>String score</t>
+  </si>
+  <si>
+    <t>用于查询用户按主题分类的成绩</t>
+  </si>
+  <si>
+    <t>int Theme_id</t>
+  </si>
+  <si>
+    <t>CJGLDao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成绩模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true:成功 false:失败</t>
+  </si>
+  <si>
+    <t>udateDetailedInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>用于修改数据库个人详细信息，成功返回用户详细信息对象。否则返回false</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getDetailedInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>udateDetailedInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于查看数据库个人详细信息，成功返回用户详细信息对象。否则返回false</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getGrowthCurve</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string User_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于查看个人成长曲线图片，成功返回url，否则返回null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>答题模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>loginDao</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string username</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>true:成功 false:失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于登录验证，验证通过返回true，否则返回false</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>registerUser</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string userEmail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于验证普通用户的注册，注册成功返回success，否则返回fail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string userPassword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>forgetPassword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于忘记密码，更改密码成功就返回true,否则返回fasle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册登录模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>错题本模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int Theme_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>List&lt;Title&gt; titleList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CTGLDao</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int Theme_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int User_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于根据考试主题id和用户id显示相应的错题，成功返回错题列表，否则返回NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getFlaseTitle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于根据考试主题id显示相应的题目，成功返回题目列表，否则返回NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boolean is_real</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于根据用户点击下一题，系统将根据题目id提交答案到后台匹配，成功返回boolean对象，正确返回ture,错误返回false.否则返回NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于交卷，成功交卷返回成绩对象，否则返回NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> getThemeTitle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DTGLDao</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int title_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string Title_real_as</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> getNextTitle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> getEnd_sent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Score score</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getScore</t>
-  </si>
-  <si>
-    <t>int User_id</t>
-  </si>
-  <si>
-    <t>String score</t>
-  </si>
-  <si>
-    <t>用于查询用户按主题分类的成绩</t>
-  </si>
-  <si>
-    <t>int Theme_id</t>
-  </si>
-  <si>
-    <t>CJGLDao</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成绩模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>true:成功 false:失败</t>
   </si>
 </sst>
 </file>
@@ -425,11 +425,11 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -736,7 +736,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D8"/>
+      <selection activeCell="D33" sqref="D33:D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -749,13 +749,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -776,7 +776,7 @@
     </row>
     <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -785,99 +785,99 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
-      <c r="B5" s="9"/>
+      <c r="B5" s="10"/>
       <c r="C5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>30</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
-      <c r="B7" s="9"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+        <v>31</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
-      <c r="B8" s="9"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+        <v>32</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
       <c r="B9" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>36</v>
+        <v>25</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="9"/>
+      <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D11" s="6"/>
-      <c r="E11" s="9"/>
+      <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -889,7 +889,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>7</v>
@@ -898,7 +898,7 @@
         <v>14</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -958,7 +958,7 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="6"/>
       <c r="B20" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>7</v>
@@ -967,7 +967,7 @@
         <v>14</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
@@ -1027,21 +1027,21 @@
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="6"/>
       <c r="B27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="E27" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -1050,33 +1050,33 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
     </row>
     <row r="31" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -1085,63 +1085,63 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="6"/>
       <c r="B33" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D34" s="6"/>
-      <c r="E34" s="9"/>
+      <c r="E34" s="10"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="6"/>
       <c r="B35" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -1150,37 +1150,46 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B37" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="E37" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="A28:E28"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B20:B26"/>
     <mergeCell ref="D20:D26"/>
@@ -1197,20 +1206,11 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="E37:E38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
